--- a/assets/planos/AP - EVM - Plano de Ação 2023.xlsx
+++ b/assets/planos/AP - EVM - Plano de Ação 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.gontijo\www\node-xls-to-json\assets\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago.gontijo\Desktop\DSUSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48F8494-8E51-4EE2-B537-EBE2BFCAF96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="696" documentId="13_ncr:1_{96D409CD-6FE7-47B9-8CD0-22A41A6EEAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17814F2C-E7D1-4D65-A699-EF5F1CC6BF77}"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="573" xr2:uid="{317DE164-AE1E-402C-AB8E-CAABBD5F8C60}"/>
+    <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="573" xr2:uid="{317DE164-AE1E-402C-AB8E-CAABBD5F8C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano" sheetId="1" r:id="rId1"/>
@@ -423,649 +423,649 @@
     </comment>
     <comment ref="P55" authorId="1" shapeId="0" xr:uid="{33B4AA3D-C1CB-4EC7-85EE-10523F7FA04A}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P56" authorId="2" shapeId="0" xr:uid="{B720A02F-08F8-4633-B4E0-DBE7E2BC6FB0}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P57" authorId="3" shapeId="0" xr:uid="{5C626B61-897D-4B87-B740-90CAED30A417}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P58" authorId="4" shapeId="0" xr:uid="{A8912068-A50E-46BA-A19E-30A08843449B}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P59" authorId="5" shapeId="0" xr:uid="{93CEB8ED-BCC3-4D5E-8590-E954D3058F9E}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P60" authorId="6" shapeId="0" xr:uid="{35F64354-2B90-4E22-A1B6-B655DA5CC568}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P61" authorId="7" shapeId="0" xr:uid="{93A04596-1782-46C8-BB3C-214A77C9D323}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P62" authorId="8" shapeId="0" xr:uid="{CA89CD25-2259-4032-AF46-B48AF08CE786}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P63" authorId="9" shapeId="0" xr:uid="{68C0187F-6F7D-4532-B1B5-A806373CEBD5}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P64" authorId="10" shapeId="0" xr:uid="{126CBC99-15A2-4A47-90B8-B97A30969BD8}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P65" authorId="11" shapeId="0" xr:uid="{27354211-E7DA-4B6D-A574-CEC8E01A2F76}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P66" authorId="12" shapeId="0" xr:uid="{D975413A-3A80-492A-8DD8-9D44BC7EAD03}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P67" authorId="13" shapeId="0" xr:uid="{10B0C905-906D-480F-87CF-0E7626E128D9}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P68" authorId="14" shapeId="0" xr:uid="{DBCFC90B-359A-4275-9924-25F839BD3492}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P69" authorId="15" shapeId="0" xr:uid="{C92AA8D0-1177-4919-9390-3B1DDB5EBAD7}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P70" authorId="16" shapeId="0" xr:uid="{FE3023E5-1F1D-4774-9B17-39CE0F9E32FB}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P71" authorId="17" shapeId="0" xr:uid="{5A3629D8-74D3-48AD-BC4A-726B416485C1}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P72" authorId="18" shapeId="0" xr:uid="{FFE41C52-8903-475F-B877-2EE3FE9B5853}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P73" authorId="19" shapeId="0" xr:uid="{C8477CAB-D0A9-43B5-B679-B414E0B6432E}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P74" authorId="20" shapeId="0" xr:uid="{0639BC7B-BFA9-4F77-92B9-0877A426AB1E}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P75" authorId="21" shapeId="0" xr:uid="{7DE4340E-12AB-4CC4-AEEF-C60610455EDF}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P76" authorId="22" shapeId="0" xr:uid="{B8F0A427-00FD-4C73-9F51-E15419C2EB19}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P77" authorId="23" shapeId="0" xr:uid="{3A258ADA-3FB7-456F-9B5A-CE5A1FE47985}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P78" authorId="24" shapeId="0" xr:uid="{BA6BA644-E017-4A26-8105-CA8F711BD917}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P79" authorId="25" shapeId="0" xr:uid="{84524CEB-545F-4D3B-B02F-92EC8E432703}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P80" authorId="26" shapeId="0" xr:uid="{ADD640FB-1FA4-4966-A8FF-176B4C633F61}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P81" authorId="27" shapeId="0" xr:uid="{B3A7A10C-5D6E-491D-A910-3F0FE1A13DC9}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P82" authorId="28" shapeId="0" xr:uid="{E1D6A5FD-3E6A-4B48-93AD-7303EE56EB57}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P83" authorId="29" shapeId="0" xr:uid="{E90FB814-20F5-4B6C-A59E-EFA56FFE5AFF}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P84" authorId="30" shapeId="0" xr:uid="{91BDC744-012F-46E7-9326-174409B3D1BD}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P85" authorId="31" shapeId="0" xr:uid="{D7ABC20C-1147-4A62-88F8-3362A4437783}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P86" authorId="32" shapeId="0" xr:uid="{B5C89149-933F-4CA3-AF4B-8DC66AF89875}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P87" authorId="33" shapeId="0" xr:uid="{DF934AE5-72B8-4164-B500-F6234DA67EDD}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P88" authorId="34" shapeId="0" xr:uid="{6ABA869D-9C15-4592-9EBC-9A5F5D7EC327}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P89" authorId="35" shapeId="0" xr:uid="{671444CB-0384-40E6-92EA-2D431676CFE7}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P90" authorId="36" shapeId="0" xr:uid="{BCA5AC2A-6A1B-4165-AEA5-3B4177E0E73A}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P91" authorId="37" shapeId="0" xr:uid="{A85D81EE-33CB-4323-9258-EC02E262F1EF}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P92" authorId="38" shapeId="0" xr:uid="{09301ECD-3856-48AA-8655-8D8E97BD16D8}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P93" authorId="39" shapeId="0" xr:uid="{8F1B5F44-AC1F-49C6-9AA4-A4B7E2BB2473}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P94" authorId="40" shapeId="0" xr:uid="{E9C5D26B-AB53-41F1-A95E-69739A260AB5}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P95" authorId="41" shapeId="0" xr:uid="{99999900-52D9-4275-8530-A8F72CD5A62B}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P96" authorId="42" shapeId="0" xr:uid="{F65E55C6-3298-46D8-9E53-752CDA62F2EE}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P97" authorId="43" shapeId="0" xr:uid="{9663055E-38B4-4BDF-8E89-771561DC1650}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P98" authorId="44" shapeId="0" xr:uid="{57F93957-5242-4610-88AF-0D16A795F547}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P99" authorId="45" shapeId="0" xr:uid="{892A785D-8F18-4062-8A8B-6F8AD41ED3CE}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P100" authorId="46" shapeId="0" xr:uid="{E5CDF002-5DF6-4E0B-B9FE-DF222461DDC3}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P101" authorId="47" shapeId="0" xr:uid="{F89E51C9-CACE-4D76-AC5C-E574F535D93A}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P102" authorId="48" shapeId="0" xr:uid="{1DB8E83B-3E9F-4E0D-9C3E-B742E844D1BA}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P103" authorId="49" shapeId="0" xr:uid="{67928A6B-AA79-4ABA-A3B9-5D9F685D6054}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P104" authorId="50" shapeId="0" xr:uid="{108CF197-B789-4E80-892E-C97B3CC572A8}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P105" authorId="51" shapeId="0" xr:uid="{E83CE4C0-2166-4F56-872F-AA66A42D4446}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P106" authorId="52" shapeId="0" xr:uid="{8E7A1D74-DB3A-4A5F-8153-0A05FA2D4BC1}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P107" authorId="53" shapeId="0" xr:uid="{99C3759C-0647-465D-AFCB-54004C880B67}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P108" authorId="54" shapeId="0" xr:uid="{D47BB495-1122-43C5-A73F-5BCE46FF5AA7}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P109" authorId="55" shapeId="0" xr:uid="{F6F08885-7B60-4F77-9693-1369F148D6ED}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P110" authorId="56" shapeId="0" xr:uid="{5213A902-1D6B-48FC-8710-898919A63794}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P111" authorId="57" shapeId="0" xr:uid="{192B0D34-3A93-4229-AC8B-86F180865716}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P112" authorId="58" shapeId="0" xr:uid="{97FC7BC5-1767-4DEC-B7A2-E38C0EF4C517}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P113" authorId="59" shapeId="0" xr:uid="{56EB9ED2-79C0-4A35-945D-2433841B0692}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P114" authorId="60" shapeId="0" xr:uid="{20082859-97F3-4CDA-9992-1016D7F88584}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P115" authorId="61" shapeId="0" xr:uid="{BDD671CE-1616-4DDE-93A7-05154C2FD964}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P116" authorId="62" shapeId="0" xr:uid="{E8F11524-E3DF-47E5-BE04-A9D4696BF078}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P117" authorId="63" shapeId="0" xr:uid="{4B961971-512F-4C0D-A098-33209B9DE7B7}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P118" authorId="64" shapeId="0" xr:uid="{5FD9B3CE-F3C3-4681-9558-EFD41E36B6B1}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P119" authorId="65" shapeId="0" xr:uid="{79B5FA97-8ABE-4420-A138-DF8112935CE7}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P120" authorId="66" shapeId="0" xr:uid="{7D3FD7FB-2FA8-4228-83CB-C7B5A54747DB}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P121" authorId="67" shapeId="0" xr:uid="{28AD8F19-1977-4190-92F8-21147CCED396}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P122" authorId="68" shapeId="0" xr:uid="{9C4DF8AB-A6BA-497E-9997-ED053E955794}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P123" authorId="69" shapeId="0" xr:uid="{F9440FE8-FCD4-4FE0-AD71-3EB5FB7ED70D}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P124" authorId="70" shapeId="0" xr:uid="{14C8C3E8-A60C-46CA-928D-9BE20F0060AC}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P125" authorId="71" shapeId="0" xr:uid="{B5B4CF47-6E38-4DE9-8A3E-0179C4CD868F}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P126" authorId="72" shapeId="0" xr:uid="{D6808563-B2B1-41B5-9E11-AF39247A6299}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P127" authorId="73" shapeId="0" xr:uid="{6F2759F2-8034-4E45-A371-93E1A847D87F}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P128" authorId="74" shapeId="0" xr:uid="{52F99401-9FF5-4D87-9476-665FD3AB2DF7}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P129" authorId="75" shapeId="0" xr:uid="{7436CCB0-F51A-4BB0-9EE2-09C942E042C4}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P130" authorId="76" shapeId="0" xr:uid="{2A6BDF33-8A0F-45EF-AFDF-7EC08A446A5A}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P131" authorId="77" shapeId="0" xr:uid="{9CC77655-8378-443D-94EB-B913E9244547}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P132" authorId="78" shapeId="0" xr:uid="{602A1358-BF19-4C4B-8EFA-BD18244A1E1F}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P133" authorId="79" shapeId="0" xr:uid="{BAB2F7CB-C452-46B5-9E30-6E9EE9DDBFF7}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P134" authorId="80" shapeId="0" xr:uid="{4FD42285-167A-4CB8-8AA3-46398D260DD0}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
     <comment ref="P135" authorId="81" shapeId="0" xr:uid="{CECE4271-E6E7-4433-90CE-A6D53F5F0A8F}">
       <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Meta 04 do PESP*: Reduzir a taxa estadual de mortes violentas de mulheres para até 2 mortes por 100 mil mulheres até 2030.</t>
       </text>
     </comment>
@@ -1074,7 +1074,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="656">
   <si>
     <t>PLANO DE AÇÃO</t>
   </si>
@@ -1570,7 +1570,7 @@
     <t>Serviço Gráfico</t>
   </si>
   <si>
-    <t>SER.11.048.0112</t>
+    <t>SER.11.047.0003</t>
   </si>
   <si>
     <t>Avaliação da Qualidade Gráfica</t>
@@ -2687,9 +2687,6 @@
   </si>
   <si>
     <t>Gaveteiro</t>
-  </si>
-  <si>
-    <t>SER.11.047.0003</t>
   </si>
   <si>
     <t>Geladeira</t>
@@ -3065,7 +3062,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3435,34 +3432,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3481,19 +3468,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3575,7 +3572,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4124,11 +4121,11 @@
   </sheetPr>
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A125" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="24" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="23" customWidth="1"/>
@@ -4149,51 +4146,51 @@
     <col min="17" max="16384" width="20.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="103.5" customHeight="1">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
       <c r="M1" s="27">
         <v>2023</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-    </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="61.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="61.5">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -4211,137 +4208,137 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:16" ht="39.75" customHeight="1">
+      <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-    </row>
-    <row r="5" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+    </row>
+    <row r="5" spans="1:16" ht="30.75" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+    </row>
+    <row r="6" spans="1:16" ht="38.25" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" ht="30.75" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="8" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+    </row>
+    <row r="8" spans="1:16" ht="30.75" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" spans="1:16" ht="30.75" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -4359,137 +4356,137 @@
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:16" ht="39" customHeight="1">
+      <c r="A11" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="12" spans="1:16" ht="30.75" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="1:16" ht="30.75" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-    </row>
-    <row r="14" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="1:16" ht="30.75" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" spans="1:16" ht="30.75" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" spans="1:16" ht="30.75" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4507,525 +4504,525 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:16" ht="50.25" customHeight="1">
+      <c r="A18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-    </row>
-    <row r="19" spans="1:16" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+    </row>
+    <row r="19" spans="1:16" ht="141.75" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="1:16" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+    </row>
+    <row r="20" spans="1:16" ht="141.75" customHeight="1">
       <c r="A20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="1:16" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="141.75" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="1:16" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="49" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+    </row>
+    <row r="23" spans="1:16" ht="150.75" customHeight="1">
+      <c r="A23" s="41"/>
+      <c r="B23" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="48" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75">
+      <c r="A24" s="41"/>
+      <c r="B24" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-    </row>
-    <row r="25" spans="1:16" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="49" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+    </row>
+    <row r="25" spans="1:16" ht="142.5" customHeight="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="48" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+    </row>
+    <row r="26" spans="1:16" ht="18.75">
+      <c r="A26" s="41"/>
+      <c r="B26" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-    </row>
-    <row r="27" spans="1:16" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="49" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+    </row>
+    <row r="27" spans="1:16" ht="109.5" customHeight="1">
+      <c r="A27" s="41"/>
+      <c r="B27" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-    </row>
-    <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="48" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+    </row>
+    <row r="28" spans="1:16" ht="18.75">
+      <c r="A28" s="41"/>
+      <c r="B28" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-    </row>
-    <row r="29" spans="1:16" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="49" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+    </row>
+    <row r="29" spans="1:16" ht="116.25" customHeight="1">
+      <c r="A29" s="41"/>
+      <c r="B29" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-    </row>
-    <row r="30" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="45" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+    </row>
+    <row r="30" spans="1:16" ht="18.75">
+      <c r="A30" s="41"/>
+      <c r="B30" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="49" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+    </row>
+    <row r="31" spans="1:16" ht="104.25" customHeight="1">
+      <c r="A31" s="41"/>
+      <c r="B31" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-    </row>
-    <row r="32" spans="1:16" ht="350.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" spans="1:16" ht="350.25" customHeight="1">
       <c r="A32" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-    </row>
-    <row r="33" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+    </row>
+    <row r="33" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A33" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="43" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-    </row>
-    <row r="34" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="52" t="s">
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A34" s="41"/>
+      <c r="B34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="37"/>
+      <c r="D34" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-    </row>
-    <row r="35" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="52" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A35" s="41"/>
+      <c r="B35" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="43" t="s">
+      <c r="C35" s="37"/>
+      <c r="D35" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-    </row>
-    <row r="36" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="52" t="s">
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+    </row>
+    <row r="36" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A36" s="41"/>
+      <c r="B36" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-    </row>
-    <row r="37" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="52" t="s">
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+    </row>
+    <row r="37" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A37" s="41"/>
+      <c r="B37" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-    </row>
-    <row r="38" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="52" t="s">
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+    </row>
+    <row r="38" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A38" s="41"/>
+      <c r="B38" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-    </row>
-    <row r="39" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52" t="s">
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+    </row>
+    <row r="39" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A39" s="41"/>
+      <c r="B39" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-    </row>
-    <row r="40" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="52" t="s">
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+    </row>
+    <row r="40" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A40" s="41"/>
+      <c r="B40" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-    </row>
-    <row r="41" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="52" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+    </row>
+    <row r="41" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A41" s="41"/>
+      <c r="B41" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-    </row>
-    <row r="42" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="52" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+    </row>
+    <row r="42" spans="1:16" ht="40.5" customHeight="1">
+      <c r="A42" s="41"/>
+      <c r="B42" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+    </row>
+    <row r="43" spans="1:16" ht="4.5" customHeight="1">
       <c r="A43" s="12"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5041,7 +5038,7 @@
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
     </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="4.5" customHeight="1">
       <c r="A44" s="12"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5057,7 +5054,7 @@
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="4.5" customHeight="1">
       <c r="A45" s="12"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -5073,7 +5070,7 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
     </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="4.5" customHeight="1">
       <c r="A46" s="12"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -5089,7 +5086,7 @@
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="4.5" customHeight="1">
       <c r="A47" s="12"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -5105,7 +5102,7 @@
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="4.5" customHeight="1">
       <c r="A48" s="12"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -5121,7 +5118,7 @@
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
     </row>
-    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="4.5" customHeight="1">
       <c r="A49" s="12"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -5137,7 +5134,7 @@
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
     </row>
-    <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="4.5" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5153,7 +5150,7 @@
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
     </row>
-    <row r="51" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="4.5" customHeight="1">
       <c r="A51" s="12"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5169,57 +5166,57 @@
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
     </row>
-    <row r="52" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
+    <row r="52" spans="1:17" ht="36.75" customHeight="1">
+      <c r="A52" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="54"/>
-    </row>
-    <row r="53" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+    </row>
+    <row r="53" spans="1:17" ht="36" customHeight="1">
+      <c r="A53" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53" t="s">
+      <c r="C53" s="39"/>
+      <c r="D53" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53" t="s">
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="P53" s="53"/>
+      <c r="P53" s="39"/>
       <c r="Q53" s="18"/>
     </row>
-    <row r="54" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+    <row r="54" spans="1:17" ht="66" customHeight="1">
+      <c r="A54" s="39"/>
       <c r="B54" s="29" t="s">
         <v>60</v>
       </c>
@@ -5267,7 +5264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="88.5" customHeight="1">
       <c r="A55" s="30" t="s">
         <v>41</v>
       </c>
@@ -5317,7 +5314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="88.5" customHeight="1">
       <c r="A56" s="30" t="s">
         <v>41</v>
       </c>
@@ -5367,7 +5364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="88.5" customHeight="1">
       <c r="A57" s="30" t="s">
         <v>41</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="88.5" customHeight="1">
       <c r="A58" s="30" t="s">
         <v>41</v>
       </c>
@@ -5467,7 +5464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="88.5" customHeight="1">
       <c r="A59" s="30" t="s">
         <v>41</v>
       </c>
@@ -5517,7 +5514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="88.5" customHeight="1">
       <c r="A60" s="30" t="s">
         <v>41</v>
       </c>
@@ -5568,7 +5565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="88.5" customHeight="1">
       <c r="A61" s="30" t="s">
         <v>41</v>
       </c>
@@ -5600,7 +5597,7 @@
         <v>80</v>
       </c>
       <c r="K61" s="34">
-        <f t="shared" ref="K61:K62" si="0">I61*7142.5</f>
+        <f t="shared" ref="K61:K63" si="0">I61*7142.5</f>
         <v>35712.5</v>
       </c>
       <c r="L61" s="32" t="s">
@@ -5619,7 +5616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="88.5" customHeight="1">
       <c r="A62" s="30" t="s">
         <v>41</v>
       </c>
@@ -5670,7 +5667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="88.5" customHeight="1">
       <c r="A63" s="30" t="s">
         <v>41</v>
       </c>
@@ -5721,7 +5718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="88.5" customHeight="1">
       <c r="A64" s="30" t="s">
         <v>41</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>80</v>
       </c>
       <c r="K64" s="34">
-        <f t="shared" ref="K64:K65" si="1">I64*4344.65</f>
+        <f t="shared" ref="K64:K66" si="1">I64*4344.65</f>
         <v>21723.25</v>
       </c>
       <c r="L64" s="32" t="s">
@@ -5772,7 +5769,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="88.5" customHeight="1">
       <c r="A65" s="30" t="s">
         <v>41</v>
       </c>
@@ -5823,7 +5820,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="88.5" customHeight="1">
       <c r="A66" s="30" t="s">
         <v>41</v>
       </c>
@@ -5874,7 +5871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="88.5" customHeight="1">
       <c r="A67" s="30" t="s">
         <v>41</v>
       </c>
@@ -5906,7 +5903,7 @@
         <v>80</v>
       </c>
       <c r="K67" s="34">
-        <f t="shared" ref="K67:K68" si="2">I67*5108.96</f>
+        <f t="shared" ref="K67:K69" si="2">I67*5108.96</f>
         <v>10217.92</v>
       </c>
       <c r="L67" s="32" t="s">
@@ -5925,7 +5922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="88.5" customHeight="1">
       <c r="A68" s="30" t="s">
         <v>41</v>
       </c>
@@ -5976,7 +5973,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="88.5" customHeight="1">
       <c r="A69" s="30" t="s">
         <v>41</v>
       </c>
@@ -6027,7 +6024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="88.5" customHeight="1">
       <c r="A70" s="30" t="s">
         <v>41</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>80</v>
       </c>
       <c r="K70" s="34">
-        <f t="shared" ref="K70:K71" si="3">I70*5399</f>
+        <f t="shared" ref="K70:K72" si="3">I70*5399</f>
         <v>32394</v>
       </c>
       <c r="L70" s="32" t="s">
@@ -6078,7 +6075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="88.5" customHeight="1">
       <c r="A71" s="30" t="s">
         <v>41</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="88.5" customHeight="1">
       <c r="A72" s="30" t="s">
         <v>41</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="88.5" customHeight="1">
       <c r="A73" s="30" t="s">
         <v>41</v>
       </c>
@@ -6212,7 +6209,7 @@
         <v>80</v>
       </c>
       <c r="K73" s="34">
-        <f t="shared" ref="K73:K74" si="4">I73*2294.11</f>
+        <f t="shared" ref="K73:K75" si="4">I73*2294.11</f>
         <v>11470.550000000001</v>
       </c>
       <c r="L73" s="32" t="s">
@@ -6231,7 +6228,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="88.5" customHeight="1">
       <c r="A74" s="30" t="s">
         <v>41</v>
       </c>
@@ -6282,7 +6279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="88.5" customHeight="1">
       <c r="A75" s="30" t="s">
         <v>41</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="88.5" customHeight="1">
       <c r="A76" s="30" t="s">
         <v>41</v>
       </c>
@@ -6365,7 +6362,7 @@
         <v>80</v>
       </c>
       <c r="K76" s="34">
-        <f t="shared" ref="K76:K77" si="5">I76*1200</f>
+        <f t="shared" ref="K76:K78" si="5">I76*1200</f>
         <v>7200</v>
       </c>
       <c r="L76" s="32" t="s">
@@ -6384,7 +6381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="88.5" customHeight="1">
       <c r="A77" s="30" t="s">
         <v>41</v>
       </c>
@@ -6435,7 +6432,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="88.5" customHeight="1">
       <c r="A78" s="30" t="s">
         <v>41</v>
       </c>
@@ -6486,7 +6483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="88.5" customHeight="1">
       <c r="A79" s="30" t="s">
         <v>41</v>
       </c>
@@ -6518,7 +6515,7 @@
         <v>80</v>
       </c>
       <c r="K79" s="34">
-        <f t="shared" ref="K79:K80" si="6">I79*4000</f>
+        <f t="shared" ref="K79:K81" si="6">I79*4000</f>
         <v>8000</v>
       </c>
       <c r="L79" s="32" t="s">
@@ -6537,7 +6534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="88.5" customHeight="1">
       <c r="A80" s="30" t="s">
         <v>41</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="88.5" customHeight="1">
       <c r="A81" s="30" t="s">
         <v>41</v>
       </c>
@@ -6639,7 +6636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="88.5" customHeight="1">
       <c r="A82" s="30" t="s">
         <v>41</v>
       </c>
@@ -6671,7 +6668,7 @@
         <v>80</v>
       </c>
       <c r="K82" s="34">
-        <f t="shared" ref="K82:K83" si="7">I82*2433.6</f>
+        <f t="shared" ref="K82:K84" si="7">I82*2433.6</f>
         <v>4867.2</v>
       </c>
       <c r="L82" s="32" t="s">
@@ -6690,7 +6687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="88.5" customHeight="1">
       <c r="A83" s="30" t="s">
         <v>41</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="88.5" customHeight="1">
       <c r="A84" s="30" t="s">
         <v>41</v>
       </c>
@@ -6792,7 +6789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="88.5" customHeight="1">
       <c r="A85" s="30" t="s">
         <v>41</v>
       </c>
@@ -6824,7 +6821,7 @@
         <v>80</v>
       </c>
       <c r="K85" s="34">
-        <f t="shared" ref="K85:K86" si="8">I85*1500</f>
+        <f t="shared" ref="K85:K87" si="8">I85*1500</f>
         <v>3000</v>
       </c>
       <c r="L85" s="32" t="s">
@@ -6843,7 +6840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="88.5" customHeight="1">
       <c r="A86" s="30" t="s">
         <v>41</v>
       </c>
@@ -6894,7 +6891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="88.5" customHeight="1">
       <c r="A87" s="30" t="s">
         <v>41</v>
       </c>
@@ -6945,7 +6942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="88.5" customHeight="1">
       <c r="A88" s="30" t="s">
         <v>41</v>
       </c>
@@ -6977,7 +6974,7 @@
         <v>80</v>
       </c>
       <c r="K88" s="34">
-        <f t="shared" ref="K88:K89" si="9">I88*665.3</f>
+        <f t="shared" ref="K88:K90" si="9">I88*665.3</f>
         <v>3326.5</v>
       </c>
       <c r="L88" s="32" t="s">
@@ -6996,7 +6993,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="88.5" customHeight="1">
       <c r="A89" s="30" t="s">
         <v>41</v>
       </c>
@@ -7047,7 +7044,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="88.5" customHeight="1">
       <c r="A90" s="30" t="s">
         <v>41</v>
       </c>
@@ -7098,7 +7095,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="88.5" customHeight="1">
       <c r="A91" s="30" t="s">
         <v>41</v>
       </c>
@@ -7130,7 +7127,7 @@
         <v>80</v>
       </c>
       <c r="K91" s="34">
-        <f t="shared" ref="K91:K92" si="10">I91*634.64</f>
+        <f t="shared" ref="K91:K93" si="10">I91*634.64</f>
         <v>12692.8</v>
       </c>
       <c r="L91" s="32" t="s">
@@ -7149,7 +7146,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="88.5" customHeight="1">
       <c r="A92" s="30" t="s">
         <v>41</v>
       </c>
@@ -7200,7 +7197,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="88.5" customHeight="1">
       <c r="A93" s="30" t="s">
         <v>41</v>
       </c>
@@ -7251,7 +7248,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="88.5" customHeight="1">
       <c r="A94" s="30" t="s">
         <v>41</v>
       </c>
@@ -7283,7 +7280,7 @@
         <v>80</v>
       </c>
       <c r="K94" s="34">
-        <f t="shared" ref="K94:K95" si="11">I94*1500</f>
+        <f t="shared" ref="K94:K96" si="11">I94*1500</f>
         <v>3000</v>
       </c>
       <c r="L94" s="32" t="s">
@@ -7302,7 +7299,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="88.5" customHeight="1">
       <c r="A95" s="30" t="s">
         <v>41</v>
       </c>
@@ -7353,7 +7350,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="88.5" customHeight="1">
       <c r="A96" s="30" t="s">
         <v>41</v>
       </c>
@@ -7404,7 +7401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="88.5" customHeight="1">
       <c r="A97" s="30" t="s">
         <v>41</v>
       </c>
@@ -7436,7 +7433,7 @@
         <v>80</v>
       </c>
       <c r="K97" s="34">
-        <f t="shared" ref="K97:K98" si="12">I97*1102.46</f>
+        <f t="shared" ref="K97:K99" si="12">I97*1102.46</f>
         <v>5512.3</v>
       </c>
       <c r="L97" s="32" t="s">
@@ -7455,7 +7452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="88.5" customHeight="1">
       <c r="A98" s="30" t="s">
         <v>41</v>
       </c>
@@ -7506,7 +7503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="88.5" customHeight="1">
       <c r="A99" s="30" t="s">
         <v>41</v>
       </c>
@@ -7556,7 +7553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="88.5" customHeight="1">
       <c r="A100" s="30" t="s">
         <v>43</v>
       </c>
@@ -7606,7 +7603,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="88.5" customHeight="1">
       <c r="A101" s="30" t="s">
         <v>43</v>
       </c>
@@ -7656,7 +7653,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="88.5" customHeight="1">
       <c r="A102" s="30" t="s">
         <v>43</v>
       </c>
@@ -7706,7 +7703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="88.5" customHeight="1">
       <c r="A103" s="30" t="s">
         <v>43</v>
       </c>
@@ -7756,7 +7753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="88.5" customHeight="1">
       <c r="A104" s="30" t="s">
         <v>43</v>
       </c>
@@ -7806,7 +7803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="88.5" customHeight="1">
       <c r="A105" s="30" t="s">
         <v>43</v>
       </c>
@@ -7856,7 +7853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="74.25" customHeight="1">
       <c r="A106" s="30" t="s">
         <v>43</v>
       </c>
@@ -7906,7 +7903,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="74.25" customHeight="1">
       <c r="A107" s="30" t="s">
         <v>43</v>
       </c>
@@ -7956,7 +7953,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="74.25" customHeight="1">
       <c r="A108" s="30" t="s">
         <v>43</v>
       </c>
@@ -8006,7 +8003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="74.25" customHeight="1">
       <c r="A109" s="30" t="s">
         <v>43</v>
       </c>
@@ -8056,7 +8053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="74.25" customHeight="1">
       <c r="A110" s="30" t="s">
         <v>43</v>
       </c>
@@ -8106,7 +8103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="74.25" customHeight="1">
       <c r="A111" s="30" t="s">
         <v>43</v>
       </c>
@@ -8156,7 +8153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="74.25" customHeight="1">
       <c r="A112" s="30" t="s">
         <v>43</v>
       </c>
@@ -8206,7 +8203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="74.25" customHeight="1">
       <c r="A113" s="30" t="s">
         <v>43</v>
       </c>
@@ -8256,7 +8253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="74.25" customHeight="1">
       <c r="A114" s="30" t="s">
         <v>43</v>
       </c>
@@ -8306,7 +8303,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="74.25" customHeight="1">
       <c r="A115" s="30" t="s">
         <v>43</v>
       </c>
@@ -8356,7 +8353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="74.25" customHeight="1">
       <c r="A116" s="30" t="s">
         <v>43</v>
       </c>
@@ -8406,7 +8403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="74.25" customHeight="1">
       <c r="A117" s="30" t="s">
         <v>43</v>
       </c>
@@ -8456,7 +8453,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="74.25" customHeight="1">
       <c r="A118" s="30" t="s">
         <v>43</v>
       </c>
@@ -8506,7 +8503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="74.25" customHeight="1">
       <c r="A119" s="30" t="s">
         <v>43</v>
       </c>
@@ -8556,7 +8553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="74.25" customHeight="1">
       <c r="A120" s="30" t="s">
         <v>43</v>
       </c>
@@ -8606,7 +8603,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="74.25" customHeight="1">
       <c r="A121" s="30" t="s">
         <v>43</v>
       </c>
@@ -8656,7 +8653,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="74.25" customHeight="1">
       <c r="A122" s="30" t="s">
         <v>43</v>
       </c>
@@ -8706,7 +8703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="74.25" customHeight="1">
       <c r="A123" s="30" t="s">
         <v>43</v>
       </c>
@@ -8756,7 +8753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="74.25" customHeight="1">
       <c r="A124" s="30" t="s">
         <v>43</v>
       </c>
@@ -8806,7 +8803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="74.25" customHeight="1">
       <c r="A125" s="30" t="s">
         <v>43</v>
       </c>
@@ -8856,7 +8853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="74.25" customHeight="1">
       <c r="A126" s="30" t="s">
         <v>43</v>
       </c>
@@ -8906,7 +8903,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="74.25" customHeight="1">
       <c r="A127" s="30" t="s">
         <v>43</v>
       </c>
@@ -8956,7 +8953,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="74.25" customHeight="1">
       <c r="A128" s="30" t="s">
         <v>43</v>
       </c>
@@ -9006,7 +9003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="74.25" customHeight="1">
       <c r="A129" s="30" t="s">
         <v>43</v>
       </c>
@@ -9056,7 +9053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="74.25" customHeight="1">
       <c r="A130" s="30" t="s">
         <v>45</v>
       </c>
@@ -9106,7 +9103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="74.25" customHeight="1">
       <c r="A131" s="30" t="s">
         <v>45</v>
       </c>
@@ -9156,7 +9153,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="74.25" customHeight="1">
       <c r="A132" s="30" t="s">
         <v>45</v>
       </c>
@@ -9206,7 +9203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="74.25" customHeight="1">
       <c r="A133" s="30" t="s">
         <v>45</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="74.25" customHeight="1">
       <c r="A134" s="30" t="s">
         <v>45</v>
       </c>
@@ -9306,7 +9303,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="74.25" customHeight="1">
       <c r="A135" s="30" t="s">
         <v>45</v>
       </c>
@@ -9356,7 +9353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="74.25" customHeight="1">
       <c r="A136" s="30"/>
       <c r="B136" s="31"/>
       <c r="C136" s="32"/>
@@ -9374,7 +9371,7 @@
       <c r="O136" s="32"/>
       <c r="P136" s="32"/>
     </row>
-    <row r="137" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="74.25" customHeight="1">
       <c r="A137" s="30"/>
       <c r="B137" s="31"/>
       <c r="C137" s="32"/>
@@ -9392,7 +9389,7 @@
       <c r="O137" s="32"/>
       <c r="P137" s="32"/>
     </row>
-    <row r="138" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="74.25" customHeight="1">
       <c r="A138" s="30"/>
       <c r="B138" s="31"/>
       <c r="C138" s="32"/>
@@ -9410,7 +9407,7 @@
       <c r="O138" s="32"/>
       <c r="P138" s="32"/>
     </row>
-    <row r="139" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="74.25" customHeight="1">
       <c r="A139" s="30"/>
       <c r="B139" s="31"/>
       <c r="C139" s="32"/>
@@ -9428,7 +9425,7 @@
       <c r="O139" s="32"/>
       <c r="P139" s="32"/>
     </row>
-    <row r="140" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="74.25" customHeight="1">
       <c r="A140" s="30"/>
       <c r="B140" s="31"/>
       <c r="C140" s="32"/>
@@ -9446,7 +9443,7 @@
       <c r="O140" s="32"/>
       <c r="P140" s="32"/>
     </row>
-    <row r="141" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="74.25" customHeight="1">
       <c r="A141" s="30"/>
       <c r="B141" s="31"/>
       <c r="C141" s="32"/>
@@ -9464,7 +9461,7 @@
       <c r="O141" s="32"/>
       <c r="P141" s="32"/>
     </row>
-    <row r="142" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="74.25" customHeight="1">
       <c r="A142" s="30"/>
       <c r="B142" s="31"/>
       <c r="C142" s="32"/>
@@ -9482,7 +9479,7 @@
       <c r="O142" s="32"/>
       <c r="P142" s="32"/>
     </row>
-    <row r="143" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="74.25" customHeight="1">
       <c r="A143" s="30"/>
       <c r="B143" s="31"/>
       <c r="C143" s="32"/>
@@ -9500,7 +9497,7 @@
       <c r="O143" s="32"/>
       <c r="P143" s="32"/>
     </row>
-    <row r="144" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="74.25" customHeight="1">
       <c r="A144" s="30"/>
       <c r="B144" s="31"/>
       <c r="C144" s="32"/>
@@ -9518,7 +9515,7 @@
       <c r="O144" s="32"/>
       <c r="P144" s="32"/>
     </row>
-    <row r="145" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="74.25" customHeight="1">
       <c r="A145" s="30"/>
       <c r="B145" s="31"/>
       <c r="C145" s="32"/>
@@ -9536,7 +9533,7 @@
       <c r="O145" s="32"/>
       <c r="P145" s="32"/>
     </row>
-    <row r="146" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="74.25" customHeight="1">
       <c r="A146" s="30"/>
       <c r="B146" s="31"/>
       <c r="C146" s="32"/>
@@ -9554,7 +9551,7 @@
       <c r="O146" s="32"/>
       <c r="P146" s="32"/>
     </row>
-    <row r="147" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="74.25" customHeight="1">
       <c r="A147" s="30"/>
       <c r="B147" s="31"/>
       <c r="C147" s="32"/>
@@ -9572,7 +9569,7 @@
       <c r="O147" s="32"/>
       <c r="P147" s="32"/>
     </row>
-    <row r="148" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="74.25" customHeight="1">
       <c r="A148" s="30"/>
       <c r="B148" s="31"/>
       <c r="C148" s="32"/>
@@ -9590,7 +9587,7 @@
       <c r="O148" s="32"/>
       <c r="P148" s="32"/>
     </row>
-    <row r="149" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="74.25" customHeight="1">
       <c r="A149" s="30"/>
       <c r="B149" s="31"/>
       <c r="C149" s="32"/>
@@ -9608,7 +9605,7 @@
       <c r="O149" s="32"/>
       <c r="P149" s="32"/>
     </row>
-    <row r="150" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="74.25" customHeight="1">
       <c r="A150" s="30"/>
       <c r="B150" s="31"/>
       <c r="C150" s="32"/>
@@ -9626,7 +9623,7 @@
       <c r="O150" s="32"/>
       <c r="P150" s="32"/>
     </row>
-    <row r="151" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="74.25" customHeight="1">
       <c r="A151" s="30"/>
       <c r="B151" s="31"/>
       <c r="C151" s="32"/>
@@ -9644,7 +9641,7 @@
       <c r="O151" s="32"/>
       <c r="P151" s="32"/>
     </row>
-    <row r="152" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="74.25" customHeight="1">
       <c r="A152" s="30"/>
       <c r="B152" s="31"/>
       <c r="C152" s="32"/>
@@ -9662,7 +9659,7 @@
       <c r="O152" s="32"/>
       <c r="P152" s="32"/>
     </row>
-    <row r="153" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="74.25" customHeight="1">
       <c r="A153" s="30"/>
       <c r="B153" s="31"/>
       <c r="C153" s="32"/>
@@ -9680,7 +9677,7 @@
       <c r="O153" s="32"/>
       <c r="P153" s="32"/>
     </row>
-    <row r="154" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="74.25" customHeight="1">
       <c r="A154" s="30"/>
       <c r="B154" s="31"/>
       <c r="C154" s="32"/>
@@ -9698,7 +9695,7 @@
       <c r="O154" s="32"/>
       <c r="P154" s="32"/>
     </row>
-    <row r="155" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="74.25" customHeight="1">
       <c r="A155" s="30"/>
       <c r="B155" s="31"/>
       <c r="C155" s="32"/>
@@ -9716,7 +9713,7 @@
       <c r="O155" s="32"/>
       <c r="P155" s="32"/>
     </row>
-    <row r="156" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="74.25" customHeight="1">
       <c r="A156" s="30"/>
       <c r="B156" s="31"/>
       <c r="C156" s="32"/>
@@ -9734,7 +9731,7 @@
       <c r="O156" s="32"/>
       <c r="P156" s="32"/>
     </row>
-    <row r="157" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="74.25" customHeight="1">
       <c r="A157" s="30"/>
       <c r="B157" s="31"/>
       <c r="C157" s="32"/>
@@ -9752,7 +9749,7 @@
       <c r="O157" s="32"/>
       <c r="P157" s="32"/>
     </row>
-    <row r="158" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="74.25" customHeight="1">
       <c r="A158" s="30"/>
       <c r="B158" s="31"/>
       <c r="C158" s="32"/>
@@ -9770,7 +9767,7 @@
       <c r="O158" s="32"/>
       <c r="P158" s="32"/>
     </row>
-    <row r="159" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="74.25" customHeight="1">
       <c r="A159" s="30"/>
       <c r="B159" s="31"/>
       <c r="C159" s="32"/>
@@ -9788,7 +9785,7 @@
       <c r="O159" s="32"/>
       <c r="P159" s="32"/>
     </row>
-    <row r="160" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="74.25" customHeight="1">
       <c r="A160" s="30"/>
       <c r="B160" s="31"/>
       <c r="C160" s="32"/>
@@ -9806,7 +9803,7 @@
       <c r="O160" s="32"/>
       <c r="P160" s="32"/>
     </row>
-    <row r="161" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="74.25" customHeight="1">
       <c r="A161" s="30"/>
       <c r="B161" s="31"/>
       <c r="C161" s="32"/>
@@ -9824,7 +9821,7 @@
       <c r="O161" s="32"/>
       <c r="P161" s="32"/>
     </row>
-    <row r="162" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="74.25" customHeight="1">
       <c r="A162" s="30"/>
       <c r="B162" s="31"/>
       <c r="C162" s="32"/>
@@ -9842,7 +9839,7 @@
       <c r="O162" s="32"/>
       <c r="P162" s="32"/>
     </row>
-    <row r="163" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="74.25" customHeight="1">
       <c r="A163" s="30"/>
       <c r="B163" s="31"/>
       <c r="C163" s="32"/>
@@ -9860,7 +9857,7 @@
       <c r="O163" s="32"/>
       <c r="P163" s="32"/>
     </row>
-    <row r="164" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="74.25" customHeight="1">
       <c r="A164" s="30"/>
       <c r="B164" s="31"/>
       <c r="C164" s="32"/>
@@ -9878,7 +9875,7 @@
       <c r="O164" s="32"/>
       <c r="P164" s="32"/>
     </row>
-    <row r="165" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="74.25" customHeight="1">
       <c r="A165" s="30"/>
       <c r="B165" s="31"/>
       <c r="C165" s="32"/>
@@ -9896,7 +9893,7 @@
       <c r="O165" s="32"/>
       <c r="P165" s="32"/>
     </row>
-    <row r="166" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="74.25" customHeight="1">
       <c r="A166" s="30"/>
       <c r="B166" s="31"/>
       <c r="C166" s="32"/>
@@ -9914,7 +9911,7 @@
       <c r="O166" s="32"/>
       <c r="P166" s="32"/>
     </row>
-    <row r="167" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="74.25" customHeight="1">
       <c r="A167" s="30"/>
       <c r="B167" s="31"/>
       <c r="C167" s="32"/>
@@ -9932,7 +9929,7 @@
       <c r="O167" s="32"/>
       <c r="P167" s="32"/>
     </row>
-    <row r="168" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="74.25" customHeight="1">
       <c r="A168" s="30"/>
       <c r="B168" s="31"/>
       <c r="C168" s="32"/>
@@ -9950,7 +9947,7 @@
       <c r="O168" s="32"/>
       <c r="P168" s="32"/>
     </row>
-    <row r="169" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="74.25" customHeight="1">
       <c r="A169" s="30"/>
       <c r="B169" s="31"/>
       <c r="C169" s="32"/>
@@ -9968,7 +9965,7 @@
       <c r="O169" s="32"/>
       <c r="P169" s="32"/>
     </row>
-    <row r="170" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="74.25" customHeight="1">
       <c r="A170" s="30"/>
       <c r="B170" s="31"/>
       <c r="C170" s="32"/>
@@ -9986,7 +9983,7 @@
       <c r="O170" s="32"/>
       <c r="P170" s="32"/>
     </row>
-    <row r="171" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="74.25" customHeight="1">
       <c r="A171" s="30"/>
       <c r="B171" s="31"/>
       <c r="C171" s="32"/>
@@ -10004,7 +10001,7 @@
       <c r="O171" s="32"/>
       <c r="P171" s="32"/>
     </row>
-    <row r="172" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="74.25" customHeight="1">
       <c r="A172" s="30"/>
       <c r="B172" s="31"/>
       <c r="C172" s="32"/>
@@ -10022,7 +10019,7 @@
       <c r="O172" s="32"/>
       <c r="P172" s="32"/>
     </row>
-    <row r="173" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="74.25" customHeight="1">
       <c r="A173" s="30"/>
       <c r="B173" s="31"/>
       <c r="C173" s="32"/>
@@ -10040,7 +10037,7 @@
       <c r="O173" s="32"/>
       <c r="P173" s="32"/>
     </row>
-    <row r="174" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="74.25" customHeight="1">
       <c r="A174" s="30"/>
       <c r="B174" s="31"/>
       <c r="C174" s="32"/>
@@ -10058,7 +10055,7 @@
       <c r="O174" s="32"/>
       <c r="P174" s="32"/>
     </row>
-    <row r="175" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="74.25" customHeight="1">
       <c r="A175" s="30"/>
       <c r="B175" s="31"/>
       <c r="C175" s="32"/>
@@ -10076,7 +10073,7 @@
       <c r="O175" s="32"/>
       <c r="P175" s="32"/>
     </row>
-    <row r="176" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="74.25" customHeight="1">
       <c r="A176" s="30"/>
       <c r="B176" s="31"/>
       <c r="C176" s="32"/>
@@ -10094,7 +10091,7 @@
       <c r="O176" s="32"/>
       <c r="P176" s="32"/>
     </row>
-    <row r="177" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="74.25" customHeight="1">
       <c r="A177" s="30"/>
       <c r="B177" s="31"/>
       <c r="C177" s="32"/>
@@ -10112,7 +10109,7 @@
       <c r="O177" s="32"/>
       <c r="P177" s="32"/>
     </row>
-    <row r="178" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="74.25" customHeight="1">
       <c r="A178" s="30"/>
       <c r="B178" s="31"/>
       <c r="C178" s="32"/>
@@ -10130,7 +10127,7 @@
       <c r="O178" s="32"/>
       <c r="P178" s="32"/>
     </row>
-    <row r="179" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="74.25" customHeight="1">
       <c r="A179" s="30"/>
       <c r="B179" s="31"/>
       <c r="C179" s="32"/>
@@ -10148,7 +10145,7 @@
       <c r="O179" s="32"/>
       <c r="P179" s="32"/>
     </row>
-    <row r="180" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="74.25" customHeight="1">
       <c r="A180" s="30"/>
       <c r="B180" s="31"/>
       <c r="C180" s="32"/>
@@ -10166,7 +10163,7 @@
       <c r="O180" s="32"/>
       <c r="P180" s="32"/>
     </row>
-    <row r="181" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="74.25" customHeight="1">
       <c r="A181" s="30"/>
       <c r="B181" s="31"/>
       <c r="C181" s="32"/>
@@ -10184,7 +10181,7 @@
       <c r="O181" s="32"/>
       <c r="P181" s="32"/>
     </row>
-    <row r="182" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="74.25" customHeight="1">
       <c r="A182" s="30"/>
       <c r="B182" s="31"/>
       <c r="C182" s="32"/>
@@ -10202,7 +10199,7 @@
       <c r="O182" s="32"/>
       <c r="P182" s="32"/>
     </row>
-    <row r="183" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="74.25" customHeight="1">
       <c r="A183" s="30"/>
       <c r="B183" s="31"/>
       <c r="C183" s="32"/>
@@ -10220,7 +10217,7 @@
       <c r="O183" s="32"/>
       <c r="P183" s="32"/>
     </row>
-    <row r="184" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="74.25" customHeight="1">
       <c r="A184" s="30"/>
       <c r="B184" s="31"/>
       <c r="C184" s="32"/>
@@ -10238,7 +10235,7 @@
       <c r="O184" s="32"/>
       <c r="P184" s="32"/>
     </row>
-    <row r="185" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="74.25" customHeight="1">
       <c r="A185" s="30"/>
       <c r="B185" s="31"/>
       <c r="C185" s="32"/>
@@ -10256,7 +10253,7 @@
       <c r="O185" s="32"/>
       <c r="P185" s="32"/>
     </row>
-    <row r="186" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="74.25" customHeight="1">
       <c r="A186" s="30"/>
       <c r="B186" s="31"/>
       <c r="C186" s="32"/>
@@ -10274,7 +10271,7 @@
       <c r="O186" s="32"/>
       <c r="P186" s="32"/>
     </row>
-    <row r="187" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="74.25" customHeight="1">
       <c r="A187" s="30"/>
       <c r="B187" s="31"/>
       <c r="C187" s="32"/>
@@ -10292,7 +10289,7 @@
       <c r="O187" s="32"/>
       <c r="P187" s="32"/>
     </row>
-    <row r="188" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="74.25" customHeight="1">
       <c r="A188" s="30"/>
       <c r="B188" s="31"/>
       <c r="C188" s="32"/>
@@ -10310,7 +10307,7 @@
       <c r="O188" s="32"/>
       <c r="P188" s="32"/>
     </row>
-    <row r="189" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="74.25" customHeight="1">
       <c r="A189" s="30"/>
       <c r="B189" s="31"/>
       <c r="C189" s="32"/>
@@ -10328,7 +10325,7 @@
       <c r="O189" s="32"/>
       <c r="P189" s="32"/>
     </row>
-    <row r="190" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="74.25" customHeight="1">
       <c r="A190" s="30"/>
       <c r="B190" s="31"/>
       <c r="C190" s="32"/>
@@ -10346,7 +10343,7 @@
       <c r="O190" s="32"/>
       <c r="P190" s="32"/>
     </row>
-    <row r="191" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="74.25" customHeight="1">
       <c r="A191" s="30"/>
       <c r="B191" s="31"/>
       <c r="C191" s="32"/>
@@ -10364,7 +10361,7 @@
       <c r="O191" s="32"/>
       <c r="P191" s="32"/>
     </row>
-    <row r="192" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="74.25" customHeight="1">
       <c r="A192" s="30"/>
       <c r="B192" s="31"/>
       <c r="C192" s="32"/>
@@ -10382,7 +10379,7 @@
       <c r="O192" s="32"/>
       <c r="P192" s="32"/>
     </row>
-    <row r="193" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="74.25" customHeight="1">
       <c r="A193" s="30"/>
       <c r="B193" s="31"/>
       <c r="C193" s="32"/>
@@ -10400,7 +10397,7 @@
       <c r="O193" s="32"/>
       <c r="P193" s="32"/>
     </row>
-    <row r="194" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="74.25" customHeight="1">
       <c r="A194" s="30"/>
       <c r="B194" s="31"/>
       <c r="C194" s="32"/>
@@ -10418,7 +10415,7 @@
       <c r="O194" s="32"/>
       <c r="P194" s="32"/>
     </row>
-    <row r="195" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="74.25" customHeight="1">
       <c r="A195" s="30"/>
       <c r="B195" s="31"/>
       <c r="C195" s="32"/>
@@ -10436,7 +10433,7 @@
       <c r="O195" s="32"/>
       <c r="P195" s="32"/>
     </row>
-    <row r="196" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="74.25" customHeight="1">
       <c r="A196" s="30"/>
       <c r="B196" s="31"/>
       <c r="C196" s="32"/>
@@ -10454,7 +10451,7 @@
       <c r="O196" s="32"/>
       <c r="P196" s="32"/>
     </row>
-    <row r="197" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="74.25" customHeight="1">
       <c r="A197" s="30"/>
       <c r="B197" s="31"/>
       <c r="C197" s="32"/>
@@ -10472,7 +10469,7 @@
       <c r="O197" s="32"/>
       <c r="P197" s="32"/>
     </row>
-    <row r="198" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="74.25" customHeight="1">
       <c r="A198" s="30"/>
       <c r="B198" s="31"/>
       <c r="C198" s="32"/>
@@ -10490,7 +10487,7 @@
       <c r="O198" s="32"/>
       <c r="P198" s="32"/>
     </row>
-    <row r="199" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="74.25" customHeight="1">
       <c r="A199" s="30"/>
       <c r="B199" s="31"/>
       <c r="C199" s="32"/>
@@ -10508,7 +10505,7 @@
       <c r="O199" s="32"/>
       <c r="P199" s="32"/>
     </row>
-    <row r="200" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="74.25" customHeight="1">
       <c r="A200" s="30"/>
       <c r="B200" s="31"/>
       <c r="C200" s="32"/>
@@ -10526,7 +10523,7 @@
       <c r="O200" s="32"/>
       <c r="P200" s="32"/>
     </row>
-    <row r="201" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="74.25" customHeight="1">
       <c r="A201" s="30"/>
       <c r="B201" s="31"/>
       <c r="C201" s="32"/>
@@ -10544,7 +10541,7 @@
       <c r="O201" s="32"/>
       <c r="P201" s="32"/>
     </row>
-    <row r="202" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="74.25" customHeight="1">
       <c r="A202" s="30"/>
       <c r="B202" s="31"/>
       <c r="C202" s="32"/>
@@ -10562,7 +10559,7 @@
       <c r="O202" s="32"/>
       <c r="P202" s="32"/>
     </row>
-    <row r="203" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="74.25" customHeight="1">
       <c r="A203" s="30"/>
       <c r="B203" s="31"/>
       <c r="C203" s="32"/>
@@ -10580,7 +10577,7 @@
       <c r="O203" s="32"/>
       <c r="P203" s="32"/>
     </row>
-    <row r="204" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="74.25" customHeight="1">
       <c r="A204" s="30"/>
       <c r="B204" s="31"/>
       <c r="C204" s="32"/>
@@ -10598,7 +10595,7 @@
       <c r="O204" s="32"/>
       <c r="P204" s="32"/>
     </row>
-    <row r="205" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="74.25" customHeight="1">
       <c r="A205" s="30"/>
       <c r="B205" s="31"/>
       <c r="C205" s="32"/>
@@ -10616,7 +10613,7 @@
       <c r="O205" s="32"/>
       <c r="P205" s="32"/>
     </row>
-    <row r="206" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="74.25" customHeight="1">
       <c r="A206" s="30"/>
       <c r="B206" s="31"/>
       <c r="C206" s="32"/>
@@ -10634,7 +10631,7 @@
       <c r="O206" s="32"/>
       <c r="P206" s="32"/>
     </row>
-    <row r="207" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="74.25" customHeight="1">
       <c r="A207" s="30"/>
       <c r="B207" s="31"/>
       <c r="C207" s="32"/>
@@ -10652,7 +10649,7 @@
       <c r="O207" s="32"/>
       <c r="P207" s="32"/>
     </row>
-    <row r="208" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="74.25" customHeight="1">
       <c r="A208" s="30"/>
       <c r="B208" s="31"/>
       <c r="C208" s="32"/>
@@ -10671,20 +10668,39 @@
       <c r="P208" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CbzaHiDv4LVzHPDdKdtn7HpXfi6AzHFa1j/mEY/eSsiG99EkSOjD80ghS/yXYfvuTC4d5JmaLbmNEqQqCM8Wzw==" saltValue="fjiuaaE626hTXpoZ7GEg0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatRows="0"/>
   <mergeCells count="59">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="D41:P41"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B8:P8"/>
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="B9:P9"/>
+    <mergeCell ref="B12:P12"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="B19:P19"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B32:P32"/>
+    <mergeCell ref="B22:P22"/>
+    <mergeCell ref="B29:P29"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B31:P31"/>
+    <mergeCell ref="B23:P23"/>
+    <mergeCell ref="B24:P24"/>
+    <mergeCell ref="B26:P26"/>
+    <mergeCell ref="B28:P28"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="D33:P33"/>
     <mergeCell ref="D34:P34"/>
@@ -10701,37 +10717,18 @@
     <mergeCell ref="D42:P42"/>
     <mergeCell ref="D37:P37"/>
     <mergeCell ref="D38:P38"/>
-    <mergeCell ref="B19:P19"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B32:P32"/>
-    <mergeCell ref="B22:P22"/>
-    <mergeCell ref="B29:P29"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B31:P31"/>
-    <mergeCell ref="B23:P23"/>
-    <mergeCell ref="B24:P24"/>
-    <mergeCell ref="B26:P26"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="B7:P7"/>
-    <mergeCell ref="B8:P8"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="A18:P18"/>
-    <mergeCell ref="B9:P9"/>
-    <mergeCell ref="B12:P12"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:K53"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17 I43:K51 I209:K1048576" xr:uid="{5D7C397E-12F3-449F-86FE-0120D5AA2AFD}">
@@ -10874,7 +10871,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="177.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -10892,7 +10889,7 @@
     <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -10930,7 +10927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="17.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>183</v>
@@ -10949,7 +10946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>185</v>
       </c>
@@ -10985,7 +10982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -11024,7 +11021,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>199</v>
       </c>
@@ -11060,7 +11057,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -11093,7 +11090,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -11126,7 +11123,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -11156,7 +11153,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -11186,7 +11183,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>233</v>
       </c>
@@ -11216,7 +11213,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -11246,7 +11243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -11272,7 +11269,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>252</v>
       </c>
@@ -11298,7 +11295,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>260</v>
       </c>
@@ -11324,7 +11321,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -11350,7 +11347,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="B16" s="5" t="s">
         <v>275</v>
       </c>
@@ -11373,7 +11370,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="B17" s="5" t="s">
         <v>282</v>
       </c>
@@ -11393,7 +11390,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="B18" s="5" t="s">
         <v>287</v>
       </c>
@@ -11410,7 +11407,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16">
       <c r="B19" s="5" t="s">
         <v>292</v>
       </c>
@@ -11430,7 +11427,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="5" t="s">
         <v>298</v>
       </c>
@@ -11447,7 +11444,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="5" t="s">
         <v>303</v>
       </c>
@@ -11467,7 +11464,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="5" t="s">
         <v>309</v>
       </c>
@@ -11487,7 +11484,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="C23" s="1" t="s">
         <v>315</v>
       </c>
@@ -11504,7 +11501,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="C24" s="1" t="s">
         <v>320</v>
       </c>
@@ -11521,7 +11518,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="C25" s="1" t="s">
         <v>324</v>
       </c>
@@ -11538,7 +11535,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="C26" s="1" t="s">
         <v>329</v>
       </c>
@@ -11555,7 +11552,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="C27" s="1" t="s">
         <v>334</v>
       </c>
@@ -11572,7 +11569,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="C28" s="1" t="s">
         <v>339</v>
       </c>
@@ -11589,7 +11586,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="C29" s="1" t="s">
         <v>344</v>
       </c>
@@ -11606,7 +11603,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="D30" t="s">
         <v>348</v>
       </c>
@@ -11620,7 +11617,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="D31" t="s">
         <v>352</v>
       </c>
@@ -11634,7 +11631,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="D32" t="s">
         <v>356</v>
       </c>
@@ -11645,7 +11642,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:16">
       <c r="D33" t="s">
         <v>359</v>
       </c>
@@ -11659,7 +11656,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:16">
       <c r="D34" t="s">
         <v>363</v>
       </c>
@@ -11670,7 +11667,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:16">
       <c r="D35" t="s">
         <v>366</v>
       </c>
@@ -11684,7 +11681,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:16">
       <c r="D36" t="s">
         <v>370</v>
       </c>
@@ -11698,7 +11695,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:16">
       <c r="D37" t="s">
         <v>374</v>
       </c>
@@ -11712,7 +11709,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:16">
       <c r="D38" t="s">
         <v>378</v>
       </c>
@@ -11726,7 +11723,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:16">
       <c r="D39" t="s">
         <v>382</v>
       </c>
@@ -11740,7 +11737,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:16">
       <c r="D40" t="s">
         <v>386</v>
       </c>
@@ -11754,7 +11751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:16">
       <c r="D41" t="s">
         <v>389</v>
       </c>
@@ -11768,7 +11765,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:16">
       <c r="D42" t="s">
         <v>393</v>
       </c>
@@ -11782,7 +11779,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:16">
       <c r="D43" t="s">
         <v>397</v>
       </c>
@@ -11796,7 +11793,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:16">
       <c r="D44" t="s">
         <v>401</v>
       </c>
@@ -11810,7 +11807,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:16">
       <c r="D45" t="s">
         <v>405</v>
       </c>
@@ -11824,7 +11821,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:16">
       <c r="D46" t="s">
         <v>408</v>
       </c>
@@ -11838,7 +11835,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:16">
       <c r="D47" t="s">
         <v>123</v>
       </c>
@@ -11849,7 +11846,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:16">
       <c r="D48" t="s">
         <v>119</v>
       </c>
@@ -11860,7 +11857,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:16">
       <c r="D49" t="s">
         <v>416</v>
       </c>
@@ -11871,7 +11868,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:16">
       <c r="D50" t="s">
         <v>116</v>
       </c>
@@ -11882,7 +11879,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:16">
       <c r="D51" t="s">
         <v>137</v>
       </c>
@@ -11893,7 +11890,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:16">
       <c r="D52" t="s">
         <v>423</v>
       </c>
@@ -11904,7 +11901,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:16">
       <c r="D53" t="s">
         <v>131</v>
       </c>
@@ -11915,7 +11912,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:16">
       <c r="D54" t="s">
         <v>428</v>
       </c>
@@ -11923,7 +11920,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:16">
       <c r="D55" t="s">
         <v>126</v>
       </c>
@@ -11931,7 +11928,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:16">
       <c r="D56" t="s">
         <v>431</v>
       </c>
@@ -11939,7 +11936,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:16">
       <c r="D57" t="s">
         <v>433</v>
       </c>
@@ -11947,7 +11944,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:16">
       <c r="D58" t="s">
         <v>435</v>
       </c>
@@ -11955,7 +11952,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:16">
       <c r="D59" t="s">
         <v>437</v>
       </c>
@@ -11963,7 +11960,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:16">
       <c r="D60" t="s">
         <v>439</v>
       </c>
@@ -11971,7 +11968,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="61" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:16">
       <c r="D61" t="s">
         <v>441</v>
       </c>
@@ -11979,7 +11976,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:16">
       <c r="D62" t="s">
         <v>443</v>
       </c>
@@ -11987,7 +11984,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="63" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:16">
       <c r="D63" t="s">
         <v>445</v>
       </c>
@@ -11995,7 +11992,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:16">
       <c r="D64" t="s">
         <v>447</v>
       </c>
@@ -12003,7 +12000,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:8">
       <c r="D65" t="s">
         <v>449</v>
       </c>
@@ -12011,7 +12008,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:8">
       <c r="D66" t="s">
         <v>451</v>
       </c>
@@ -12019,7 +12016,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:8">
       <c r="D67" t="s">
         <v>453</v>
       </c>
@@ -12027,7 +12024,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:8">
       <c r="D68" t="s">
         <v>455</v>
       </c>
@@ -12035,7 +12032,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:8">
       <c r="D69" t="s">
         <v>457</v>
       </c>
@@ -12043,7 +12040,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:8">
       <c r="D70" t="s">
         <v>459</v>
       </c>
@@ -12051,7 +12048,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:8">
       <c r="D71" t="s">
         <v>461</v>
       </c>
@@ -12059,7 +12056,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:8">
       <c r="D72" t="s">
         <v>463</v>
       </c>
@@ -12067,7 +12064,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:8">
       <c r="D73" t="s">
         <v>465</v>
       </c>
@@ -12075,7 +12072,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:8">
       <c r="D74" t="s">
         <v>89</v>
       </c>
@@ -12083,7 +12080,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:8">
       <c r="D75" t="s">
         <v>468</v>
       </c>
@@ -12091,7 +12088,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:8">
       <c r="D76" t="s">
         <v>469</v>
       </c>
@@ -12099,7 +12096,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:8">
       <c r="D77" t="s">
         <v>77</v>
       </c>
@@ -12107,7 +12104,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:8">
       <c r="D78" t="s">
         <v>472</v>
       </c>
@@ -12115,7 +12112,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:8">
       <c r="D79" t="s">
         <v>474</v>
       </c>
@@ -12123,7 +12120,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:8">
       <c r="D80" t="s">
         <v>476</v>
       </c>
@@ -12131,7 +12128,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:8">
       <c r="D81" t="s">
         <v>477</v>
       </c>
@@ -12139,7 +12136,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:8">
       <c r="D82" t="s">
         <v>479</v>
       </c>
@@ -12147,7 +12144,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:8">
       <c r="D83" t="s">
         <v>481</v>
       </c>
@@ -12155,7 +12152,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:8">
       <c r="D84" t="s">
         <v>483</v>
       </c>
@@ -12163,7 +12160,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:8">
       <c r="D85" t="s">
         <v>485</v>
       </c>
@@ -12171,7 +12168,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:8">
       <c r="D86" t="s">
         <v>487</v>
       </c>
@@ -12179,7 +12176,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:8">
       <c r="D87" t="s">
         <v>489</v>
       </c>
@@ -12187,7 +12184,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:8">
       <c r="D88" t="s">
         <v>491</v>
       </c>
@@ -12195,7 +12192,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:8">
       <c r="D89" t="s">
         <v>493</v>
       </c>
@@ -12203,7 +12200,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:8">
       <c r="D90" t="s">
         <v>495</v>
       </c>
@@ -12211,7 +12208,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:8">
       <c r="D91" t="s">
         <v>497</v>
       </c>
@@ -12219,7 +12216,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:8">
       <c r="D92" t="s">
         <v>134</v>
       </c>
@@ -12227,7 +12224,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:8">
       <c r="D93" t="s">
         <v>500</v>
       </c>
@@ -12235,7 +12232,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:8">
       <c r="D94" t="s">
         <v>113</v>
       </c>
@@ -12243,7 +12240,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:8">
       <c r="D95" t="s">
         <v>107</v>
       </c>
@@ -12251,7 +12248,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:8">
       <c r="D96" t="s">
         <v>110</v>
       </c>
@@ -12259,7 +12256,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:8">
       <c r="D97" t="s">
         <v>505</v>
       </c>
@@ -12267,7 +12264,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:8">
       <c r="D98" t="s">
         <v>96</v>
       </c>
@@ -12275,7 +12272,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:8">
       <c r="D99" t="s">
         <v>101</v>
       </c>
@@ -12283,7 +12280,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:8">
       <c r="D100" t="s">
         <v>509</v>
       </c>
@@ -12291,7 +12288,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:8">
       <c r="D101" t="s">
         <v>511</v>
       </c>
@@ -12299,7 +12296,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:8">
       <c r="D102" t="s">
         <v>104</v>
       </c>
@@ -12307,7 +12304,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:8">
       <c r="D103" t="s">
         <v>514</v>
       </c>
@@ -12315,7 +12312,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:8">
       <c r="D104" t="s">
         <v>516</v>
       </c>
@@ -12323,7 +12320,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:8">
       <c r="D105" t="s">
         <v>518</v>
       </c>
@@ -12331,7 +12328,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:8">
       <c r="D106" t="s">
         <v>520</v>
       </c>
@@ -12339,7 +12336,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:8">
       <c r="D107" t="s">
         <v>522</v>
       </c>
@@ -12347,7 +12344,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:8">
       <c r="D108" t="s">
         <v>524</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:8">
       <c r="D109" t="s">
         <v>526</v>
       </c>
@@ -12363,7 +12360,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:8">
       <c r="D110" t="s">
         <v>528</v>
       </c>
@@ -12371,7 +12368,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:8">
       <c r="D111" t="s">
         <v>530</v>
       </c>
@@ -12379,7 +12376,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:8">
       <c r="D112" t="s">
         <v>153</v>
       </c>
@@ -12387,7 +12384,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:8">
       <c r="D113" t="s">
         <v>157</v>
       </c>
@@ -12395,682 +12392,682 @@
         <v>533</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:8">
       <c r="D114" t="s">
+        <v>161</v>
+      </c>
+      <c r="H114" t="s">
         <v>534</v>
       </c>
-      <c r="H114" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="4:8">
       <c r="D115" t="s">
         <v>170</v>
       </c>
       <c r="H115" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8">
       <c r="D116" t="s">
         <v>142</v>
       </c>
       <c r="H116" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8">
+      <c r="D117" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
+      <c r="H117" t="s">
         <v>538</v>
       </c>
-      <c r="H117" t="s">
+    </row>
+    <row r="118" spans="4:8">
+      <c r="D118" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
+      <c r="H118" t="s">
         <v>540</v>
       </c>
-      <c r="H118" t="s">
+    </row>
+    <row r="119" spans="4:8">
+      <c r="D119" t="s">
         <v>541</v>
-      </c>
-    </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>542</v>
       </c>
       <c r="H119" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:8">
       <c r="D120" t="s">
+        <v>542</v>
+      </c>
+      <c r="H120" t="s">
         <v>543</v>
       </c>
-      <c r="H120" t="s">
+    </row>
+    <row r="121" spans="4:8">
+      <c r="D121" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+      <c r="H121" t="s">
         <v>545</v>
       </c>
-      <c r="H121" t="s">
+    </row>
+    <row r="122" spans="4:8">
+      <c r="D122" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
+      <c r="H122" t="s">
         <v>547</v>
       </c>
-      <c r="H122" t="s">
+    </row>
+    <row r="123" spans="4:8">
+      <c r="D123" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
+      <c r="H123" t="s">
         <v>549</v>
       </c>
-      <c r="H123" t="s">
+    </row>
+    <row r="124" spans="4:8">
+      <c r="D124" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
+      <c r="H124" t="s">
         <v>551</v>
       </c>
-      <c r="H124" t="s">
+    </row>
+    <row r="125" spans="4:8">
+      <c r="D125" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
+      <c r="H125" t="s">
         <v>553</v>
       </c>
-      <c r="H125" t="s">
+    </row>
+    <row r="126" spans="4:8">
+      <c r="D126" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D126" t="s">
+      <c r="H126" t="s">
         <v>555</v>
       </c>
-      <c r="H126" t="s">
+    </row>
+    <row r="127" spans="4:8">
+      <c r="D127" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
+      <c r="H127" t="s">
         <v>557</v>
       </c>
-      <c r="H127" t="s">
+    </row>
+    <row r="128" spans="4:8">
+      <c r="D128" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
+      <c r="H128" t="s">
         <v>559</v>
       </c>
-      <c r="H128" t="s">
+    </row>
+    <row r="129" spans="4:8">
+      <c r="D129" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
+      <c r="H129" t="s">
         <v>561</v>
       </c>
-      <c r="H129" t="s">
+    </row>
+    <row r="130" spans="4:8">
+      <c r="D130" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
+      <c r="H130" t="s">
         <v>563</v>
       </c>
-      <c r="H130" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="4:8">
       <c r="D131" s="4"/>
       <c r="H131" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8">
       <c r="D132" s="4"/>
       <c r="H132" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8">
       <c r="D133" s="4"/>
       <c r="H133" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8">
       <c r="D134" s="4"/>
       <c r="H134" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8">
       <c r="D135" s="4"/>
       <c r="H135" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8">
       <c r="D136" s="4"/>
       <c r="H136" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="137" spans="4:8">
       <c r="D137" s="4"/>
       <c r="H137" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8">
       <c r="D138" s="4"/>
       <c r="H138" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8">
       <c r="D139" s="4"/>
       <c r="H139" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8">
       <c r="D140" s="4"/>
       <c r="H140" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8">
       <c r="D141" s="4"/>
       <c r="H141" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8">
       <c r="D142" s="4"/>
       <c r="H142" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8">
       <c r="D143" s="4"/>
       <c r="H143" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="144" spans="4:8">
       <c r="D144" s="4"/>
       <c r="H144" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="145" spans="4:8">
       <c r="D145" s="4"/>
       <c r="H145" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="146" spans="4:8">
       <c r="D146" s="4"/>
       <c r="H146" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="147" spans="4:8">
       <c r="D147" s="4"/>
       <c r="H147" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="4:8">
       <c r="D148" s="4"/>
       <c r="H148" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="149" spans="4:8">
       <c r="D149" s="4"/>
       <c r="H149" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:8">
       <c r="D150" s="4"/>
       <c r="H150" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="151" spans="4:8">
       <c r="D151" s="4"/>
       <c r="H151" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="152" spans="4:8">
       <c r="D152" s="4"/>
       <c r="H152" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="153" spans="4:8">
       <c r="D153" s="4"/>
       <c r="H153" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="154" spans="4:8">
       <c r="D154" s="4"/>
       <c r="H154" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:8">
       <c r="D155" s="4"/>
       <c r="H155" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="156" spans="4:8">
       <c r="D156" s="4"/>
       <c r="H156" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="157" spans="4:8">
       <c r="D157" s="4"/>
       <c r="H157" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="158" spans="4:8">
       <c r="D158" s="4"/>
       <c r="H158" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="159" spans="4:8">
       <c r="D159" s="4"/>
       <c r="H159" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="160" spans="4:8">
+      <c r="H160" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="H160" t="s">
+    <row r="161" spans="8:8">
+      <c r="H161" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H161" t="s">
+    <row r="162" spans="8:8">
+      <c r="H162" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H162" t="s">
+    <row r="163" spans="8:8">
+      <c r="H163" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H163" t="s">
+    <row r="164" spans="8:8">
+      <c r="H164" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H164" t="s">
+    <row r="165" spans="8:8">
+      <c r="H165" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H165" t="s">
+    <row r="166" spans="8:8">
+      <c r="H166" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H166" t="s">
+    <row r="167" spans="8:8">
+      <c r="H167" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H167" t="s">
+    <row r="168" spans="8:8">
+      <c r="H168" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H168" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:8">
       <c r="H169" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:8">
       <c r="H170" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8">
+      <c r="H171" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H171" t="s">
+    <row r="172" spans="8:8">
+      <c r="H172" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H172" t="s">
+    <row r="173" spans="8:8">
+      <c r="H173" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H173" t="s">
+    <row r="174" spans="8:8">
+      <c r="H174" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H174" t="s">
+    <row r="175" spans="8:8">
+      <c r="H175" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H175" t="s">
+    <row r="176" spans="8:8">
+      <c r="H176" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H176" t="s">
+    <row r="177" spans="8:8">
+      <c r="H177" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H177" t="s">
+    <row r="178" spans="8:8">
+      <c r="H178" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H178" t="s">
+    <row r="179" spans="8:8">
+      <c r="H179" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H179" t="s">
+    <row r="180" spans="8:8">
+      <c r="H180" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H180" t="s">
+    <row r="181" spans="8:8">
+      <c r="H181" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H181" t="s">
+    <row r="182" spans="8:8">
+      <c r="H182" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H182" t="s">
+    <row r="183" spans="8:8">
+      <c r="H183" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H183" t="s">
+    <row r="184" spans="8:8">
+      <c r="H184" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H184" t="s">
+    <row r="185" spans="8:8">
+      <c r="H185" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H185" t="s">
+    <row r="186" spans="8:8">
+      <c r="H186" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H186" t="s">
+    <row r="187" spans="8:8">
+      <c r="H187" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H187" t="s">
+    <row r="188" spans="8:8">
+      <c r="H188" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H188" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:8">
       <c r="H189" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:8">
       <c r="H190" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="191" spans="8:8">
+      <c r="H191" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H191" t="s">
+    <row r="192" spans="8:8">
+      <c r="H192" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H192" t="s">
+    <row r="193" spans="8:8">
+      <c r="H193" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H193" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:8">
       <c r="H194" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:8">
       <c r="H195" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8">
+      <c r="H196" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H196" t="s">
+    <row r="197" spans="8:8">
+      <c r="H197" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H197" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:8">
       <c r="H198" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:8">
       <c r="H199" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8">
       <c r="H200" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:8">
       <c r="H201" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8">
+      <c r="H202" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H202" t="s">
+    <row r="203" spans="8:8">
+      <c r="H203" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H203" t="s">
+    <row r="204" spans="8:8">
+      <c r="H204" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H204" t="s">
+    <row r="205" spans="8:8">
+      <c r="H205" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="205" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H205" t="s">
+    <row r="206" spans="8:8">
+      <c r="H206" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="206" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H206" t="s">
+    <row r="207" spans="8:8">
+      <c r="H207" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="207" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H207" t="s">
+    <row r="208" spans="8:8">
+      <c r="H208" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="208" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H208" t="s">
+    <row r="209" spans="8:8">
+      <c r="H209" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H209" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:8">
       <c r="H210" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:8">
       <c r="H211" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8">
+      <c r="H212" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H212" t="s">
+    <row r="213" spans="8:8">
+      <c r="H213" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H213" t="s">
+    <row r="214" spans="8:8">
+      <c r="H214" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H214" t="s">
+    <row r="215" spans="8:8">
+      <c r="H215" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H215" t="s">
+    <row r="216" spans="8:8">
+      <c r="H216" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H216" t="s">
+    <row r="217" spans="8:8">
+      <c r="H217" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H217" t="s">
+    <row r="218" spans="8:8">
+      <c r="H218" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H218" t="s">
+    <row r="219" spans="8:8">
+      <c r="H219" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H219" t="s">
+    <row r="220" spans="8:8">
+      <c r="H220" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H220" t="s">
+    <row r="221" spans="8:8">
+      <c r="H221" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H221" t="s">
+    <row r="222" spans="8:8">
+      <c r="H222" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H222" t="s">
+    <row r="223" spans="8:8">
+      <c r="H223" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H223" t="s">
+    <row r="224" spans="8:8">
+      <c r="H224" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H224" t="s">
+    <row r="225" spans="8:8">
+      <c r="H225" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H225" t="s">
+    <row r="226" spans="8:8">
+      <c r="H226" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H226" t="s">
+    <row r="227" spans="8:8">
+      <c r="H227" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H227" t="s">
+    <row r="228" spans="8:8">
+      <c r="H228" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H228" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:8">
       <c r="H229" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:8">
       <c r="H230" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:8">
       <c r="H231" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="232" spans="8:8">
+      <c r="H232" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H232" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:8">
       <c r="H233" t="s">
         <v>111</v>
       </c>
@@ -13086,6 +13083,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100922EFD6E97D0794186BFE6FE18B142D3" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e2991a8b01ad41f40b9ea08d2a0af66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f85943d5-5772-48cc-9b0c-4aad256dcb95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2b3112e092c5b9af4cf4dc2dd54b75f" ns2:_="">
     <xsd:import namespace="f85943d5-5772-48cc-9b0c-4aad256dcb95"/>
@@ -13229,12 +13232,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13245,36 +13242,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6761D40-7D5E-475C-B86A-B9807AD977C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f85943d5-5772-48cc-9b0c-4aad256dcb95"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875555F2-42E6-4A58-82DB-85F28B4556E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875555F2-42E6-4A58-82DB-85F28B4556E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6761D40-7D5E-475C-B86A-B9807AD977C2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C962F554-A6D7-4090-ADC7-5D91B902DF50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C962F554-A6D7-4090-ADC7-5D91B902DF50}"/>
 </file>